--- a/task3/results/Excel/UnresolvedHostnames.xlsx
+++ b/task3/results/Excel/UnresolvedHostnames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Programmieren\00_hochschule\BigData\task3\results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8DF3A23-2183-4BF4-B13A-BF319870CEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F330A03-7FCE-4C08-8D28-FAF3025DD011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{9BC138DF-8A7F-4F7B-9840-ADE1EA3204DC}"/>
   </bookViews>
@@ -35,10 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>ResolvedHostname</t>
+    <t>Ip</t>
   </si>
   <si>
-    <t>Ip</t>
+    <t>Hostname</t>
   </si>
 </sst>
 </file>
@@ -128,8 +128,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Fraction Unresolved Hostnames</a:t>
+              <a:t>Anteil der aufgelösten</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Hostnames</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -299,7 +304,7 @@
                   <c:v>Ip</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ResolvedHostname</c:v>
+                  <c:v>Hostname</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1319,7 +1324,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1329,7 +1334,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>419140</v>
@@ -1337,7 +1342,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1472574</v>
